--- a/Microworld/Docs/key_tables.xlsx
+++ b/Microworld/Docs/key_tables.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_gna\Documents\TCD\Modules\CS7CS5_Dissertation\Microworld\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{038FA9F1-A291-4DBC-B322-5DF3EF2F0268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D640C73-6A88-4C63-BBD3-02FFAF5556D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tolerance" sheetId="1" r:id="rId1"/>
     <sheet name="env_scale" sheetId="5" r:id="rId2"/>
+    <sheet name="carbon_dist" sheetId="6" r:id="rId3"/>
+    <sheet name="carbon_dist_simple" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
   <si>
     <t>CO2</t>
   </si>
@@ -141,17 +143,158 @@
     <t>Best</t>
   </si>
   <si>
-    <t>1200 = Point of no return.</t>
-  </si>
-  <si>
     <t>Ok</t>
+  </si>
+  <si>
+    <t>x y+1</t>
+  </si>
+  <si>
+    <t>x y</t>
+  </si>
+  <si>
+    <t>x y-1</t>
+  </si>
+  <si>
+    <t>x y+2</t>
+  </si>
+  <si>
+    <t>x y-2</t>
+  </si>
+  <si>
+    <t>x+1 y</t>
+  </si>
+  <si>
+    <t>x+2 y</t>
+  </si>
+  <si>
+    <t>x-1 y</t>
+  </si>
+  <si>
+    <t>x-2 y</t>
+  </si>
+  <si>
+    <t>x+1 y+1</t>
+  </si>
+  <si>
+    <t>x+1 y-1</t>
+  </si>
+  <si>
+    <t>x+2 y-2</t>
+  </si>
+  <si>
+    <t>x+1 y+2</t>
+  </si>
+  <si>
+    <t>x+1 y -2</t>
+  </si>
+  <si>
+    <t>x+2 y+1</t>
+  </si>
+  <si>
+    <t>x+2 y-1</t>
+  </si>
+  <si>
+    <t>x+2 y+2</t>
+  </si>
+  <si>
+    <t>x-1 y-1</t>
+  </si>
+  <si>
+    <t>x-1 y-2</t>
+  </si>
+  <si>
+    <t>x-1 y+1</t>
+  </si>
+  <si>
+    <t>x-1 y+2</t>
+  </si>
+  <si>
+    <t>x-2 y+2</t>
+  </si>
+  <si>
+    <t>x-2 y+1</t>
+  </si>
+  <si>
+    <t>x-2 y-1</t>
+  </si>
+  <si>
+    <t>x-2 y-2</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>Surface</t>
+  </si>
+  <si>
+    <t>Deep</t>
+  </si>
+  <si>
+    <t>Sediments</t>
+  </si>
+  <si>
+    <t>Fossil Fuels</t>
+  </si>
+  <si>
+    <t>Soil</t>
+  </si>
+  <si>
+    <t>Air</t>
+  </si>
+  <si>
+    <t>Vegetation</t>
+  </si>
+  <si>
+    <t>Reservoir :</t>
+  </si>
+  <si>
+    <t>GtC :</t>
+  </si>
+  <si>
+    <t>Added/Year:</t>
+  </si>
+  <si>
+    <t>Removed/Year:</t>
+  </si>
+  <si>
+    <t>Based on plant growth.</t>
+  </si>
+  <si>
+    <t>35% of decaying matter.</t>
+  </si>
+  <si>
+    <t>15% of decaying matter + 100% of burned matter.</t>
+  </si>
+  <si>
+    <t>65% of decaying matter + 3% of C in the soil.</t>
+  </si>
+  <si>
+    <t>Starting gC:</t>
+  </si>
+  <si>
+    <t>Preserved Wood</t>
+  </si>
+  <si>
+    <t>50% of chopped tree mass.</t>
+  </si>
+  <si>
+    <t>Depends of pressure difference of CO2 in air/water and transfer rate k.</t>
+  </si>
+  <si>
+    <t>Lumber</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,8 +370,27 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,6 +460,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAD0C4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECCBBA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,7 +615,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -506,68 +710,131 @@
     <xf numFmtId="1" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -632,50 +899,116 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -686,14 +1019,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFECCBBA"/>
+      <color rgb="FFDAD0C4"/>
+      <color rgb="FFEDDDCF"/>
+      <color rgb="FFDFC4AB"/>
+      <color rgb="FFFEE7CE"/>
       <color rgb="FFFFAFAF"/>
       <color rgb="FFE2C5FF"/>
       <color rgb="FFBDD7EE"/>
       <color rgb="FFFF6969"/>
       <color rgb="FFFF9999"/>
-      <color rgb="FFFF7C80"/>
-      <color rgb="FFAA72D4"/>
-      <color rgb="FFCC99FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -970,10 +1305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -982,24 +1317,24 @@
     <col min="4" max="16384" width="9.23046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="39" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="39"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="39"/>
+      <c r="C2" s="60"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="60"/>
       <c r="B3" s="24" t="s">
         <v>3</v>
       </c>
@@ -1007,7 +1342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="33">
         <v>100</v>
       </c>
@@ -1018,59 +1353,138 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="37">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="35">
         <v>200</v>
       </c>
       <c r="B5" s="36">
-        <v>0.05</v>
+        <v>1E-3</v>
       </c>
       <c r="C5" s="36">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="35">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="34">
         <v>210</v>
       </c>
       <c r="B6" s="36">
         <v>0</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="33">
         <v>1790</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="37">
         <v>0</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="37">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="37">
+      <c r="G7" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="35">
         <v>1800</v>
       </c>
-      <c r="B8" s="34">
-        <v>0.05</v>
-      </c>
-      <c r="C8" s="34">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="37">
+        <v>1E-3</v>
+      </c>
+      <c r="C8" s="36">
+        <v>1E-4</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="33">
         <v>1900</v>
       </c>
-      <c r="B9" s="34">
+      <c r="B9" s="37">
         <v>1</v>
       </c>
-      <c r="C9" s="34">
+      <c r="C9" s="37">
         <v>1</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G11" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="40" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1088,8 +1502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817A891D-2421-4FEC-BA92-F0AF5A602E4D}">
   <dimension ref="A1:AC12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1185,11 +1599,11 @@
         <v>1800</v>
       </c>
       <c r="U1" s="18"/>
-      <c r="V1" s="55" t="s">
+      <c r="V1" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="55"/>
-      <c r="X1" s="55"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
       <c r="Y1" s="8" t="s">
         <v>15</v>
       </c>
@@ -1206,36 +1620,36 @@
         <f>C1-$X$2</f>
         <v>-219.3</v>
       </c>
-      <c r="D2" s="45">
+      <c r="D2" s="64">
         <f>((D1-$X$2)+(F1-$X$2))/2</f>
         <v>-144.30000000000001</v>
       </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42">
+      <c r="E2" s="64"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61">
         <f t="shared" ref="G2" si="0">((G1-$X$2)+(I1-$X$2))/2</f>
         <v>-29.300000000000011</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="42">
+      <c r="H2" s="62"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="61">
         <f t="shared" ref="J2" si="1">((J1-$X$2)+(L1-$X$2))/2</f>
         <v>145.69999999999999</v>
       </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="45">
+      <c r="K2" s="62"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="64">
         <f t="shared" ref="M2" si="2">((M1-$X$2)+(O1-$X$2))/2</f>
         <v>530.70000000000005</v>
       </c>
-      <c r="N2" s="45"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="45">
+      <c r="N2" s="64"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="64">
         <f t="shared" ref="P2" si="3">((P1-$X$2)+(R1-$X$2))/2</f>
         <v>1080.7</v>
       </c>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="42"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="61"/>
       <c r="S2" s="14" t="s">
         <v>7</v>
       </c>
@@ -1244,10 +1658,10 @@
         <v>1380.7</v>
       </c>
       <c r="U2" s="18"/>
-      <c r="V2" s="56" t="s">
+      <c r="V2" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="56"/>
+      <c r="W2" s="79"/>
       <c r="X2" s="22">
         <v>419.3</v>
       </c>
@@ -1267,36 +1681,36 @@
         <f>0.01*C2</f>
         <v>-2.1930000000000001</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="61">
         <f t="shared" ref="D3" si="4">0.01*D2</f>
         <v>-1.4430000000000001</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="42">
+      <c r="E3" s="62"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="61">
         <f t="shared" ref="G3" si="5">0.01*G2</f>
         <v>-0.29300000000000009</v>
       </c>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="42">
+      <c r="H3" s="62"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="61">
         <f t="shared" ref="J3" si="6">0.01*J2</f>
         <v>1.4569999999999999</v>
       </c>
-      <c r="K3" s="43"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="42">
+      <c r="K3" s="62"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="61">
         <f t="shared" ref="M3" si="7">0.01*M2</f>
         <v>5.3070000000000004</v>
       </c>
-      <c r="N3" s="43"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="42">
+      <c r="N3" s="62"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="61">
         <f t="shared" ref="P3" si="8">0.01*P2</f>
         <v>10.807</v>
       </c>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="44"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="63"/>
       <c r="S3" s="9" t="s">
         <v>7</v>
       </c>
@@ -1305,10 +1719,10 @@
         <v>13.807</v>
       </c>
       <c r="U3" s="18"/>
-      <c r="V3" s="56" t="s">
+      <c r="V3" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="56"/>
+      <c r="W3" s="79"/>
       <c r="X3" s="22">
         <v>14.98</v>
       </c>
@@ -1328,36 +1742,36 @@
         <f>$X$3 + C3</f>
         <v>12.787000000000001</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="64">
         <f>$X$3 + D3</f>
         <v>13.537000000000001</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="42">
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="61">
         <f t="shared" ref="G4" si="9">$X$3 + G3</f>
         <v>14.687000000000001</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="42">
+      <c r="H4" s="62"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="61">
         <f t="shared" ref="J4" si="10">$X$3 + J3</f>
         <v>16.437000000000001</v>
       </c>
-      <c r="K4" s="43"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="45">
+      <c r="K4" s="62"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="64">
         <f t="shared" ref="M4" si="11">$X$3 + M3</f>
         <v>20.286999999999999</v>
       </c>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45">
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64">
         <f t="shared" ref="P4" si="12">$X$3 + P3</f>
         <v>25.786999999999999</v>
       </c>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
       <c r="S4" s="9" t="s">
         <v>7</v>
       </c>
@@ -1366,10 +1780,10 @@
         <v>28.786999999999999</v>
       </c>
       <c r="U4" s="18"/>
-      <c r="V4" s="56" t="s">
+      <c r="V4" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="W4" s="56"/>
+      <c r="W4" s="79"/>
       <c r="X4" s="22">
         <v>11.2</v>
       </c>
@@ -1389,36 +1803,36 @@
         <f>$X$4+C3</f>
         <v>9.0069999999999997</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="61">
         <f>$X$4+D3</f>
         <v>9.7569999999999997</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="42">
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="61">
         <f t="shared" ref="G5" si="13">$X$4+G3</f>
         <v>10.907</v>
       </c>
-      <c r="H5" s="43"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="42">
+      <c r="H5" s="62"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="61">
         <f t="shared" ref="J5" si="14">$X$4+J3</f>
         <v>12.657</v>
       </c>
-      <c r="K5" s="43"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="42">
+      <c r="K5" s="62"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="61">
         <f t="shared" ref="M5" si="15">$X$4+M3</f>
         <v>16.506999999999998</v>
       </c>
-      <c r="N5" s="43"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="42">
+      <c r="N5" s="62"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="61">
         <f t="shared" ref="P5" si="16">$X$4+P3</f>
         <v>22.006999999999998</v>
       </c>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="44"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="63"/>
       <c r="S5" s="9" t="s">
         <v>7</v>
       </c>
@@ -1427,10 +1841,10 @@
         <v>25.006999999999998</v>
       </c>
       <c r="U5" s="18"/>
-      <c r="V5" s="56" t="s">
+      <c r="V5" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="56"/>
+      <c r="W5" s="79"/>
       <c r="X5" s="22">
         <v>29.1</v>
       </c>
@@ -1450,36 +1864,36 @@
         <f>X5+C3</f>
         <v>26.907</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="61">
         <f>$X$5+D3</f>
         <v>27.657</v>
       </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="42">
+      <c r="E6" s="62"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="61">
         <f t="shared" ref="G6" si="17">$X$5+G3</f>
         <v>28.807000000000002</v>
       </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="42">
+      <c r="H6" s="62"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="61">
         <f t="shared" ref="J6" si="18">$X$5+J3</f>
         <v>30.557000000000002</v>
       </c>
-      <c r="K6" s="43"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="42">
+      <c r="K6" s="62"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="61">
         <f t="shared" ref="M6" si="19">$X$5+M3</f>
         <v>34.407000000000004</v>
       </c>
-      <c r="N6" s="43"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="42">
+      <c r="N6" s="62"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="61">
         <f t="shared" ref="P6" si="20">$X$5+P3</f>
         <v>39.907000000000004</v>
       </c>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="44"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="63"/>
       <c r="S6" s="9" t="s">
         <v>7</v>
       </c>
@@ -1498,30 +1912,30 @@
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="90"/>
-      <c r="R7" s="90"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="59"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="101"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="95"/>
+      <c r="L7" s="96"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
       <c r="U7" s="18"/>
-      <c r="V7" s="75" t="s">
+      <c r="V7" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="W7" s="75"/>
+      <c r="W7" s="98"/>
       <c r="X7" s="23">
         <v>426.95</v>
       </c>
@@ -1530,31 +1944,29 @@
       </c>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:29" s="32" customFormat="1" ht="32.6" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" s="32" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="67" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="58"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="89"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="90"/>
+      <c r="R8" s="90"/>
+      <c r="S8" s="80"/>
+      <c r="T8" s="81"/>
       <c r="U8" s="29"/>
       <c r="V8" s="30"/>
       <c r="W8" s="30"/>
@@ -1600,34 +2012,34 @@
       <c r="A10" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="78" t="s">
+      <c r="C10" s="100"/>
+      <c r="D10" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="79"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="81" t="s">
+      <c r="E10" s="66"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="82"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="84" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="85"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="87" t="s">
+      <c r="H10" s="69"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="K10" s="72"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="88"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="76" t="s">
+      <c r="N10" s="75"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="Q10" s="77"/>
+      <c r="Q10" s="111"/>
       <c r="R10" s="18"/>
       <c r="S10" s="18"/>
       <c r="T10" s="18"/>
@@ -1652,38 +2064,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="V4:W4"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="V5:W5"/>
     <mergeCell ref="V7:W7"/>
@@ -1700,9 +2080,41 @@
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="P10:Q10"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="V4:W4"/>
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:R3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="J3:L3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Y2" r:id="rId1" xr:uid="{EA1F0497-8D07-4B75-9231-D4586E3C40F5}"/>
@@ -1710,4 +2122,424 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736BD2A9-2B40-47DB-B63C-F63E286E9CDE}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.69140625" style="48" customWidth="1"/>
+    <col min="2" max="5" width="12.69140625" style="48" customWidth="1"/>
+    <col min="6" max="9" width="15.69140625" style="48" customWidth="1"/>
+    <col min="10" max="10" width="15.69140625" style="32" customWidth="1"/>
+    <col min="11" max="16384" width="9.23046875" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="113" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="130" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="114" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="115" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="116" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="128" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="127" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="112"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="114"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="128"/>
+      <c r="J2" s="127"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="120">
+        <v>65500</v>
+      </c>
+      <c r="C3" s="42">
+        <v>1000</v>
+      </c>
+      <c r="D3" s="42">
+        <v>37000</v>
+      </c>
+      <c r="E3" s="42">
+        <v>6000</v>
+      </c>
+      <c r="F3" s="121">
+        <v>10000</v>
+      </c>
+      <c r="G3" s="122">
+        <v>2300</v>
+      </c>
+      <c r="H3" s="123">
+        <v>800</v>
+      </c>
+      <c r="I3" s="118">
+        <v>550</v>
+      </c>
+      <c r="J3" s="119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="112"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="129">
+        <f>C3</f>
+        <v>1000</v>
+      </c>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="122"/>
+      <c r="H4" s="123"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="119"/>
+    </row>
+    <row r="5" spans="1:10" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A5" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="50">
+        <v>0</v>
+      </c>
+      <c r="C5" s="124" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="125"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="49">
+        <v>0</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A6" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="50">
+        <v>0</v>
+      </c>
+      <c r="C6" s="124" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="125"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="47">
+        <v>0.03</v>
+      </c>
+      <c r="H6" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J7" s="48"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="132" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="131">
+        <v>6.55E+19</v>
+      </c>
+      <c r="C8" s="52">
+        <v>0</v>
+      </c>
+      <c r="D8" s="52">
+        <v>0</v>
+      </c>
+      <c r="E8" s="52">
+        <v>0</v>
+      </c>
+      <c r="F8" s="134">
+        <v>1E+19</v>
+      </c>
+      <c r="G8" s="135">
+        <v>0</v>
+      </c>
+      <c r="H8" s="117">
+        <f>((C4+G3+I3+H3)*1000000000000000)-C9-G8-I8</f>
+        <v>4.65E+18</v>
+      </c>
+      <c r="I8" s="118">
+        <v>0</v>
+      </c>
+      <c r="J8" s="119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="132"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="133">
+        <f>SUM(C8:E8)</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="129"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="119"/>
+    </row>
+  </sheetData>
+  <mergeCells count="26">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11D1C3B-C594-4340-A320-1288A27B141B}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="5" width="15.69140625" style="48" customWidth="1"/>
+    <col min="6" max="6" width="15.69140625" style="32" customWidth="1"/>
+    <col min="7" max="16384" width="9.23046875" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="112" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="114" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="115" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="116" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="128" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="127" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="112"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="127"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="121">
+        <v>10000</v>
+      </c>
+      <c r="C3" s="122">
+        <v>2300</v>
+      </c>
+      <c r="D3" s="123">
+        <v>800</v>
+      </c>
+      <c r="E3" s="118">
+        <v>550</v>
+      </c>
+      <c r="F3" s="119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="112"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="123"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="119"/>
+    </row>
+    <row r="5" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A5" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="49">
+        <v>0</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A6" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="47">
+        <v>0.03</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F7" s="48"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="132" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="134">
+        <v>1E+19</v>
+      </c>
+      <c r="C8" s="135">
+        <v>0</v>
+      </c>
+      <c r="D8" s="117">
+        <f xml:space="preserve"> (C3+E3+D3)*1000000000000000</f>
+        <v>3.65E+18</v>
+      </c>
+      <c r="E8" s="118">
+        <v>0</v>
+      </c>
+      <c r="F8" s="119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="132"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="119"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Microworld/Docs/key_tables.xlsx
+++ b/Microworld/Docs/key_tables.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_gna\Documents\TCD\Modules\CS7CS5_Dissertation\Microworld\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D640C73-6A88-4C63-BBD3-02FFAF5556D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359359E1-A527-47BA-BB09-8F5B09E56A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tolerance" sheetId="1" r:id="rId1"/>
-    <sheet name="env_scale" sheetId="5" r:id="rId2"/>
-    <sheet name="carbon_dist" sheetId="6" r:id="rId3"/>
-    <sheet name="carbon_dist_simple" sheetId="7" r:id="rId4"/>
+    <sheet name="tree_adjacency" sheetId="9" r:id="rId2"/>
+    <sheet name="env_scale" sheetId="5" r:id="rId3"/>
+    <sheet name="carbon_dist" sheetId="6" r:id="rId4"/>
+    <sheet name="carbon_dist2" sheetId="8" r:id="rId5"/>
+    <sheet name="carbon_dist_simple" sheetId="7" r:id="rId6"/>
+    <sheet name="achievements_limitataions" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="105">
   <si>
     <t>CO2</t>
   </si>
@@ -285,6 +288,117 @@
   </si>
   <si>
     <t>Lumber</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <r>
+      <t>Soil</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (2300)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Air</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(800)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Vegetation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.499984740745262"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (550)</t>
+    </r>
+  </si>
+  <si>
+    <t>COLOR</t>
+  </si>
+  <si>
+    <t>POSITION MEANING</t>
+  </si>
+  <si>
+    <t>Parent tree.</t>
+  </si>
+  <si>
+    <t>Possible adjacent position where a seedling may spawn if the parent is either a deciduous or coniferous tree.</t>
+  </si>
+  <si>
+    <t>Possible adjacent position where a seedling may spawn only if the parent is a deciduous tree.</t>
+  </si>
+  <si>
+    <t>ACHIEVEMENTS</t>
+  </si>
+  <si>
+    <t>LIMITATIONS</t>
+  </si>
+  <si>
+    <t>A functional teaching tool that students found informative, fun, and simple to use.</t>
+  </si>
+  <si>
+    <t>Should throw error messages.</t>
+  </si>
+  <si>
+    <t>Need to update help to be more informative and noticeable.</t>
+  </si>
+  <si>
+    <t>Although capture real world trends and behaviour via rules, not scientifically accurate (e.g. CO2 concentration in air fluctuates more than it does on earth in real life, ocean carbon reservoir not considered).</t>
+  </si>
+  <si>
+    <t>Got to apply software development theory.</t>
+  </si>
+  <si>
+    <t>Got to experience product evaluation process.</t>
+  </si>
+  <si>
+    <t>Got to help teach something and leaned about methods for effective teaching/learning.</t>
+  </si>
+  <si>
+    <t>Evaluation consisted of just 10 learners. This is not statistically significant for which at least 30 individuals are required.</t>
+  </si>
+  <si>
+    <t>Learned a lot about forests and their importance in the fight against rapid climate change.</t>
+  </si>
+  <si>
+    <t>Developed better appreciation for complexity of the natural world.</t>
+  </si>
+  <si>
+    <t>Furthered skill in use of NextJS, ReactJS, HTML, JavaScript, CSS, D3.js and Tailwind CSS.</t>
+  </si>
+  <si>
+    <t>Learned about the Big.js library</t>
   </si>
 </sst>
 </file>
@@ -294,7 +408,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,12 +485,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <i/>
       <u/>
       <sz val="11"/>
@@ -389,8 +497,46 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,6 +651,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -615,7 +779,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -722,9 +886,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -758,9 +919,6 @@
     <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -779,49 +937,184 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -838,12 +1131,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -851,163 +1138,112 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="17" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1019,6 +1255,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FF00"/>
+      <color rgb="FFFF66FF"/>
       <color rgb="FFECCBBA"/>
       <color rgb="FFDAD0C4"/>
       <color rgb="FFEDDDCF"/>
@@ -1027,8 +1265,6 @@
       <color rgb="FFFFAFAF"/>
       <color rgb="FFE2C5FF"/>
       <color rgb="FFBDD7EE"/>
-      <color rgb="FFFF6969"/>
-      <color rgb="FFFF9999"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1305,10 +1541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G7" sqref="G7:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1317,24 +1553,24 @@
     <col min="4" max="16384" width="9.23046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="60" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="60"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="60"/>
+      <c r="C2" s="81"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="81"/>
       <c r="B3" s="24" t="s">
         <v>3</v>
       </c>
@@ -1342,7 +1578,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="33">
         <v>100</v>
       </c>
@@ -1353,7 +1589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="35">
         <v>200</v>
       </c>
@@ -1364,7 +1600,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="34">
         <v>210</v>
       </c>
@@ -1375,7 +1611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="33">
         <v>1790</v>
       </c>
@@ -1385,23 +1621,8 @@
       <c r="C7" s="37">
         <v>0</v>
       </c>
-      <c r="G7" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K7" s="40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="35">
         <v>1800</v>
       </c>
@@ -1411,23 +1632,8 @@
       <c r="C8" s="36">
         <v>1E-4</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="33">
         <v>1900</v>
       </c>
@@ -1436,55 +1642,6 @@
       </c>
       <c r="C9" s="37">
         <v>1</v>
-      </c>
-      <c r="G9" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G11" s="40" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K11" s="40" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1499,11 +1656,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A92431-AF21-44BF-A654-2F6691A56143}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="8" max="8" width="50.69140625" style="71" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="72" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="72" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="70" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="79" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="72" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="69" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="69" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="72" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="72" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="78" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G6" s="74"/>
+      <c r="H6" s="73" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28.75" x14ac:dyDescent="0.4">
+      <c r="G7" s="75"/>
+      <c r="H7" s="73" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.75" x14ac:dyDescent="0.4">
+      <c r="G8" s="76"/>
+      <c r="H8" s="73" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817A891D-2421-4FEC-BA92-F0AF5A602E4D}">
   <dimension ref="A1:AC12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1599,17 +1883,17 @@
         <v>1800</v>
       </c>
       <c r="U1" s="18"/>
-      <c r="V1" s="78" t="s">
+      <c r="V1" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="78"/>
-      <c r="X1" s="78"/>
+      <c r="W1" s="121"/>
+      <c r="X1" s="121"/>
       <c r="Y1" s="8" t="s">
         <v>15</v>
       </c>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -1620,36 +1904,36 @@
         <f>C1-$X$2</f>
         <v>-219.3</v>
       </c>
-      <c r="D2" s="64">
+      <c r="D2" s="82">
         <f>((D1-$X$2)+(F1-$X$2))/2</f>
         <v>-144.30000000000001</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61">
+      <c r="E2" s="82"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83">
         <f t="shared" ref="G2" si="0">((G1-$X$2)+(I1-$X$2))/2</f>
         <v>-29.300000000000011</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="61">
+      <c r="H2" s="88"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="83">
         <f t="shared" ref="J2" si="1">((J1-$X$2)+(L1-$X$2))/2</f>
         <v>145.69999999999999</v>
       </c>
-      <c r="K2" s="62"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="64">
+      <c r="K2" s="88"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="82">
         <f t="shared" ref="M2" si="2">((M1-$X$2)+(O1-$X$2))/2</f>
         <v>530.70000000000005</v>
       </c>
-      <c r="N2" s="64"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="64">
+      <c r="N2" s="82"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="82">
         <f t="shared" ref="P2" si="3">((P1-$X$2)+(R1-$X$2))/2</f>
         <v>1080.7</v>
       </c>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="61"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="83"/>
       <c r="S2" s="14" t="s">
         <v>7</v>
       </c>
@@ -1658,10 +1942,10 @@
         <v>1380.7</v>
       </c>
       <c r="U2" s="18"/>
-      <c r="V2" s="79" t="s">
+      <c r="V2" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="79"/>
+      <c r="W2" s="84"/>
       <c r="X2" s="22">
         <v>419.3</v>
       </c>
@@ -1670,7 +1954,7 @@
       </c>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:29" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -1681,36 +1965,36 @@
         <f>0.01*C2</f>
         <v>-2.1930000000000001</v>
       </c>
-      <c r="D3" s="61">
+      <c r="D3" s="83">
         <f t="shared" ref="D3" si="4">0.01*D2</f>
         <v>-1.4430000000000001</v>
       </c>
-      <c r="E3" s="62"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="61">
+      <c r="E3" s="88"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="83">
         <f t="shared" ref="G3" si="5">0.01*G2</f>
         <v>-0.29300000000000009</v>
       </c>
-      <c r="H3" s="62"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="61">
+      <c r="H3" s="88"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="83">
         <f t="shared" ref="J3" si="6">0.01*J2</f>
         <v>1.4569999999999999</v>
       </c>
-      <c r="K3" s="62"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="61">
+      <c r="K3" s="88"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="83">
         <f t="shared" ref="M3" si="7">0.01*M2</f>
         <v>5.3070000000000004</v>
       </c>
-      <c r="N3" s="62"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="61">
+      <c r="N3" s="88"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="83">
         <f t="shared" ref="P3" si="8">0.01*P2</f>
         <v>10.807</v>
       </c>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="63"/>
+      <c r="Q3" s="88"/>
+      <c r="R3" s="89"/>
       <c r="S3" s="9" t="s">
         <v>7</v>
       </c>
@@ -1719,10 +2003,10 @@
         <v>13.807</v>
       </c>
       <c r="U3" s="18"/>
-      <c r="V3" s="79" t="s">
+      <c r="V3" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="79"/>
+      <c r="W3" s="84"/>
       <c r="X3" s="22">
         <v>14.98</v>
       </c>
@@ -1731,7 +2015,7 @@
       </c>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -1742,36 +2026,36 @@
         <f>$X$3 + C3</f>
         <v>12.787000000000001</v>
       </c>
-      <c r="D4" s="64">
+      <c r="D4" s="82">
         <f>$X$3 + D3</f>
         <v>13.537000000000001</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="61">
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="83">
         <f t="shared" ref="G4" si="9">$X$3 + G3</f>
         <v>14.687000000000001</v>
       </c>
-      <c r="H4" s="62"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="61">
+      <c r="H4" s="88"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="83">
         <f t="shared" ref="J4" si="10">$X$3 + J3</f>
         <v>16.437000000000001</v>
       </c>
-      <c r="K4" s="62"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="64">
+      <c r="K4" s="88"/>
+      <c r="L4" s="89"/>
+      <c r="M4" s="82">
         <f t="shared" ref="M4" si="11">$X$3 + M3</f>
         <v>20.286999999999999</v>
       </c>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64">
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82">
         <f t="shared" ref="P4" si="12">$X$3 + P3</f>
         <v>25.786999999999999</v>
       </c>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
       <c r="S4" s="9" t="s">
         <v>7</v>
       </c>
@@ -1780,10 +2064,10 @@
         <v>28.786999999999999</v>
       </c>
       <c r="U4" s="18"/>
-      <c r="V4" s="79" t="s">
+      <c r="V4" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="W4" s="79"/>
+      <c r="W4" s="84"/>
       <c r="X4" s="22">
         <v>11.2</v>
       </c>
@@ -1792,7 +2076,7 @@
       </c>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:29" ht="14.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
@@ -1803,36 +2087,36 @@
         <f>$X$4+C3</f>
         <v>9.0069999999999997</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="83">
         <f>$X$4+D3</f>
         <v>9.7569999999999997</v>
       </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="61">
+      <c r="E5" s="88"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="83">
         <f t="shared" ref="G5" si="13">$X$4+G3</f>
         <v>10.907</v>
       </c>
-      <c r="H5" s="62"/>
-      <c r="I5" s="63"/>
-      <c r="J5" s="61">
+      <c r="H5" s="88"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="83">
         <f t="shared" ref="J5" si="14">$X$4+J3</f>
         <v>12.657</v>
       </c>
-      <c r="K5" s="62"/>
-      <c r="L5" s="63"/>
-      <c r="M5" s="61">
+      <c r="K5" s="88"/>
+      <c r="L5" s="89"/>
+      <c r="M5" s="83">
         <f t="shared" ref="M5" si="15">$X$4+M3</f>
         <v>16.506999999999998</v>
       </c>
-      <c r="N5" s="62"/>
-      <c r="O5" s="63"/>
-      <c r="P5" s="61">
+      <c r="N5" s="88"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="83">
         <f t="shared" ref="P5" si="16">$X$4+P3</f>
         <v>22.006999999999998</v>
       </c>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="63"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="89"/>
       <c r="S5" s="9" t="s">
         <v>7</v>
       </c>
@@ -1841,10 +2125,10 @@
         <v>25.006999999999998</v>
       </c>
       <c r="U5" s="18"/>
-      <c r="V5" s="79" t="s">
+      <c r="V5" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="79"/>
+      <c r="W5" s="84"/>
       <c r="X5" s="22">
         <v>29.1</v>
       </c>
@@ -1853,7 +2137,7 @@
       </c>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:29" ht="14.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>21</v>
       </c>
@@ -1864,36 +2148,36 @@
         <f>X5+C3</f>
         <v>26.907</v>
       </c>
-      <c r="D6" s="61">
+      <c r="D6" s="83">
         <f>$X$5+D3</f>
         <v>27.657</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="61">
+      <c r="E6" s="88"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="83">
         <f t="shared" ref="G6" si="17">$X$5+G3</f>
         <v>28.807000000000002</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="61">
+      <c r="H6" s="88"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="83">
         <f t="shared" ref="J6" si="18">$X$5+J3</f>
         <v>30.557000000000002</v>
       </c>
-      <c r="K6" s="62"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="61">
+      <c r="K6" s="88"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="83">
         <f t="shared" ref="M6" si="19">$X$5+M3</f>
         <v>34.407000000000004</v>
       </c>
-      <c r="N6" s="62"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="61">
+      <c r="N6" s="88"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="83">
         <f t="shared" ref="P6" si="20">$X$5+P3</f>
         <v>39.907000000000004</v>
       </c>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="63"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="89"/>
       <c r="S6" s="9" t="s">
         <v>7</v>
       </c>
@@ -1908,34 +2192,34 @@
       <c r="Y6" s="18"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="91"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="102"/>
-      <c r="I7" s="103"/>
-      <c r="J7" s="94"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="97"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="77"/>
-      <c r="R7" s="77"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="82"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="111"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="120"/>
+      <c r="Q7" s="120"/>
+      <c r="R7" s="120"/>
+      <c r="S7" s="123"/>
+      <c r="T7" s="123"/>
       <c r="U7" s="18"/>
-      <c r="V7" s="98" t="s">
+      <c r="V7" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="W7" s="98"/>
+      <c r="W7" s="85"/>
       <c r="X7" s="23">
         <v>426.95</v>
       </c>
@@ -1948,25 +2232,25 @@
       <c r="A8" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="88"/>
-      <c r="O8" s="89"/>
-      <c r="P8" s="90"/>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="90"/>
-      <c r="S8" s="80"/>
-      <c r="T8" s="81"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="108"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="109"/>
+      <c r="R8" s="109"/>
+      <c r="S8" s="101"/>
+      <c r="T8" s="122"/>
       <c r="U8" s="29"/>
       <c r="V8" s="30"/>
       <c r="W8" s="30"/>
@@ -2012,34 +2296,34 @@
       <c r="A10" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="100"/>
-      <c r="D10" s="65" t="s">
+      <c r="C10" s="87"/>
+      <c r="D10" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="66"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="68" t="s">
+      <c r="E10" s="125"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="69"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="71" t="s">
+      <c r="H10" s="128"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="72"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="74" t="s">
+      <c r="K10" s="131"/>
+      <c r="L10" s="132"/>
+      <c r="M10" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="75"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="110" t="s">
+      <c r="N10" s="118"/>
+      <c r="O10" s="119"/>
+      <c r="P10" s="99" t="s">
         <v>33</v>
       </c>
-      <c r="Q10" s="111"/>
+      <c r="Q10" s="100"/>
       <c r="R10" s="18"/>
       <c r="S10" s="18"/>
       <c r="T10" s="18"/>
@@ -2064,6 +2348,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="V5:W5"/>
     <mergeCell ref="V7:W7"/>
@@ -2080,41 +2399,6 @@
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="P10:Q10"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="J3:L3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Y2" r:id="rId1" xr:uid="{EA1F0497-8D07-4B75-9231-D4586E3C40F5}"/>
@@ -2124,250 +2408,231 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736BD2A9-2B40-47DB-B63C-F63E286E9CDE}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.69140625" style="48" customWidth="1"/>
-    <col min="2" max="5" width="12.69140625" style="48" customWidth="1"/>
-    <col min="6" max="9" width="15.69140625" style="48" customWidth="1"/>
+    <col min="1" max="1" width="15.69140625" style="45" customWidth="1"/>
+    <col min="2" max="5" width="12.69140625" style="45" customWidth="1"/>
+    <col min="6" max="9" width="15.69140625" style="45" customWidth="1"/>
     <col min="10" max="10" width="15.69140625" style="32" customWidth="1"/>
     <col min="11" max="16384" width="9.23046875" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="142" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="143" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="130" t="s">
+      <c r="C1" s="139" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="114" t="s">
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="144" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="115" t="s">
+      <c r="G1" s="145" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="116" t="s">
+      <c r="H1" s="140" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="128" t="s">
+      <c r="I1" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="127" t="s">
+      <c r="J1" s="134" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="112"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="42" t="s">
+      <c r="A2" s="142"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="42" t="s">
+      <c r="E2" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="114"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="128"/>
-      <c r="J2" s="127"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="134"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="142" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="120">
+      <c r="B3" s="149">
         <v>65500</v>
       </c>
-      <c r="C3" s="42">
+      <c r="C3" s="39">
         <v>1000</v>
       </c>
-      <c r="D3" s="42">
+      <c r="D3" s="39">
         <v>37000</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="39">
         <v>6000</v>
       </c>
-      <c r="F3" s="121">
+      <c r="F3" s="150">
         <v>10000</v>
       </c>
-      <c r="G3" s="122">
+      <c r="G3" s="151">
         <v>2300</v>
       </c>
-      <c r="H3" s="123">
+      <c r="H3" s="133">
         <v>800</v>
       </c>
-      <c r="I3" s="118">
+      <c r="I3" s="138">
         <v>550</v>
       </c>
-      <c r="J3" s="119">
+      <c r="J3" s="135">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="112"/>
-      <c r="B4" s="120"/>
-      <c r="C4" s="129">
-        <f>C3</f>
+      <c r="A4" s="142"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="137">
+        <f>(C3*1)+(D3*0)+(E3*0)</f>
         <v>1000</v>
       </c>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="123"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="119"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="135"/>
     </row>
     <row r="5" spans="1:10" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="47">
         <v>0</v>
       </c>
-      <c r="C5" s="124" t="s">
+      <c r="C5" s="146" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="125"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="49">
+      <c r="D5" s="147"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="46">
         <v>0</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="J5" s="51" t="s">
+      <c r="J5" s="48" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6" s="47">
         <v>0</v>
       </c>
-      <c r="C6" s="124" t="s">
+      <c r="C6" s="146" t="s">
         <v>80</v>
       </c>
-      <c r="D6" s="125"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="44" t="s">
+      <c r="D6" s="147"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="47">
+      <c r="G6" s="44">
         <v>0.03</v>
       </c>
-      <c r="H6" s="46" t="s">
+      <c r="H6" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="I6" s="41" t="s">
+      <c r="I6" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="J6" s="51">
+      <c r="J6" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="J7" s="48"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="132" t="s">
+      <c r="J7" s="45"/>
+    </row>
+    <row r="8" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="131">
+      <c r="B8" s="63">
         <v>6.55E+19</v>
       </c>
-      <c r="C8" s="52">
+      <c r="C8" s="141">
+        <f>(C4*1*1000000000000000)+(G3*1*1000000000000000)+(I3*0*1000000000000000)</f>
+        <v>3.3E+18</v>
+      </c>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="65">
+        <v>1E+19</v>
+      </c>
+      <c r="G8" s="66">
+        <f>(G3*0)*1000000000000000</f>
         <v>0</v>
       </c>
-      <c r="D8" s="52">
+      <c r="H8" s="56">
+        <f>(G3*0*1000000000000000)+(H3*1*1000000000000000)+(I3*1*1000000000000000)</f>
+        <v>1.35E+18</v>
+      </c>
+      <c r="I8" s="57">
         <v>0</v>
       </c>
-      <c r="E8" s="52">
+      <c r="J8" s="58">
         <v>0</v>
       </c>
-      <c r="F8" s="134">
-        <v>1E+19</v>
-      </c>
-      <c r="G8" s="135">
-        <v>0</v>
-      </c>
-      <c r="H8" s="117">
-        <f>((C4+G3+I3+H3)*1000000000000000)-C9-G8-I8</f>
-        <v>4.65E+18</v>
-      </c>
-      <c r="I8" s="118">
-        <v>0</v>
-      </c>
-      <c r="J8" s="119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="132"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="133">
-        <f>SUM(C8:E8)</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="118"/>
-      <c r="J9" s="119"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E13" s="45" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="19">
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2375,157 +2640,388 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1B29DA4-39CC-47B9-8273-E9DF7EDB65B3}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.69140625" style="45" customWidth="1"/>
+    <col min="2" max="5" width="12.69140625" style="45" customWidth="1"/>
+    <col min="6" max="9" width="15.69140625" style="45" customWidth="1"/>
+    <col min="10" max="10" width="15.69140625" style="32" customWidth="1"/>
+    <col min="11" max="16384" width="9.23046875" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="142" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="143" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="139" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="144" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="145" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="140" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="136" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="134" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="142"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="144"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="134"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="142" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="149">
+        <v>65500</v>
+      </c>
+      <c r="C3" s="62">
+        <v>900</v>
+      </c>
+      <c r="D3" s="62">
+        <v>38000</v>
+      </c>
+      <c r="E3" s="62">
+        <v>1800</v>
+      </c>
+      <c r="F3" s="150">
+        <v>10000</v>
+      </c>
+      <c r="G3" s="151">
+        <v>1400</v>
+      </c>
+      <c r="H3" s="133">
+        <v>900</v>
+      </c>
+      <c r="I3" s="138">
+        <v>550</v>
+      </c>
+      <c r="J3" s="135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="142"/>
+      <c r="B4" s="149"/>
+      <c r="C4" s="137">
+        <f>(C3*1)+(D3*0)+(E3*0)</f>
+        <v>900</v>
+      </c>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="135"/>
+    </row>
+    <row r="5" spans="1:10" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A5" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="47">
+        <v>0</v>
+      </c>
+      <c r="C5" s="146" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="147"/>
+      <c r="E5" s="148"/>
+      <c r="F5" s="46">
+        <v>0</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="42.45" x14ac:dyDescent="0.35">
+      <c r="A6" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="47">
+        <v>0</v>
+      </c>
+      <c r="C6" s="146" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="147"/>
+      <c r="E6" s="148"/>
+      <c r="F6" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="44">
+        <v>0.03</v>
+      </c>
+      <c r="H6" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="I6" s="57" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J7" s="45"/>
+    </row>
+    <row r="8" spans="1:10" s="67" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="63">
+        <v>6.55E+19</v>
+      </c>
+      <c r="C8" s="141">
+        <f>(C4*1*1000000000000000)+(G3*0*1000000000000000)+(I3*0*1000000000000000)</f>
+        <v>9E+17</v>
+      </c>
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="65">
+        <v>1E+19</v>
+      </c>
+      <c r="G8" s="66">
+        <f>(G3*0)*1000000000000000</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="56">
+        <f>(G3*1*1000000000000000)+(H3*1*1000000000000000)+(I3*1*1000000000000000)</f>
+        <v>2.85E+18</v>
+      </c>
+      <c r="I8" s="57">
+        <v>0</v>
+      </c>
+      <c r="J8" s="58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E13" s="45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11D1C3B-C594-4340-A320-1288A27B141B}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="15.69140625" style="48" customWidth="1"/>
+    <col min="1" max="5" width="15.69140625" style="45" customWidth="1"/>
     <col min="6" max="6" width="15.69140625" style="32" customWidth="1"/>
     <col min="7" max="16384" width="9.23046875" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="142" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="114" t="s">
+      <c r="B1" s="144" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="115" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="116" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="128" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="127" t="s">
+      <c r="C1" s="145" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="140" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="136" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="134" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="112"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="127"/>
+      <c r="A2" s="142"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="134"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="142" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="121">
-        <v>10000</v>
-      </c>
-      <c r="C3" s="122">
-        <v>2300</v>
-      </c>
-      <c r="D3" s="123">
-        <v>800</v>
-      </c>
-      <c r="E3" s="118">
+      <c r="B3" s="150">
+        <f>D3*(10000/800)</f>
+        <v>6875</v>
+      </c>
+      <c r="C3" s="151">
+        <f>D3*(2300/800)</f>
+        <v>1581.25</v>
+      </c>
+      <c r="D3" s="133">
         <v>550</v>
       </c>
-      <c r="F3" s="119">
+      <c r="E3" s="138">
+        <f>D3*(550/800)</f>
+        <v>378.125</v>
+      </c>
+      <c r="F3" s="135">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="112"/>
-      <c r="B4" s="121"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="123"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="119"/>
+      <c r="A4" s="142"/>
+      <c r="B4" s="150"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="135"/>
     </row>
     <row r="5" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="46">
         <v>0</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="49" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="42.45" x14ac:dyDescent="0.35">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="44">
         <v>0.03</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="53">
+      <c r="F6" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F7" s="48"/>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="132" t="s">
+      <c r="A8" s="153" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="134">
-        <v>1E+19</v>
-      </c>
-      <c r="C8" s="135">
+      <c r="B8" s="154">
+        <f>B3*1000000000000000</f>
+        <v>6.875E+18</v>
+      </c>
+      <c r="C8" s="155">
+        <f xml:space="preserve"> (C3*0*1000000000000000)+(D3*0*1000000000000000)+(E3*0*1000000000000000)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="117">
-        <f xml:space="preserve"> (C3+E3+D3)*1000000000000000</f>
-        <v>3.65E+18</v>
-      </c>
-      <c r="E8" s="118">
+      <c r="D8" s="152">
+        <f xml:space="preserve"> (C3*1*1000000000000000)+(D3*1*1000000000000000)+(E3*1*1000000000000000)</f>
+        <v>2.509375E+18</v>
+      </c>
+      <c r="E8" s="138">
         <v>0</v>
       </c>
-      <c r="F8" s="119">
+      <c r="F8" s="135">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="132"/>
-      <c r="B9" s="134"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="118"/>
-      <c r="F9" s="119"/>
+      <c r="A9" s="153"/>
+      <c r="B9" s="154"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="135"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="A3:A4"/>
@@ -2538,8 +3034,97 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB5A454-2CEB-469E-AC71-4134825C8FD5}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A8" sqref="A1:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="2" width="80.69140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="23.15" x14ac:dyDescent="0.4">
+      <c r="A1" s="159" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="159" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="92.6" x14ac:dyDescent="0.4">
+      <c r="A2" s="156" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="156" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="23.15" x14ac:dyDescent="0.4">
+      <c r="A3" s="156" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="156" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="46.3" x14ac:dyDescent="0.4">
+      <c r="A4" s="156" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="156" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="69.45" x14ac:dyDescent="0.4">
+      <c r="A5" s="156" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="156" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="46.3" x14ac:dyDescent="0.4">
+      <c r="A6" s="156" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="156"/>
+    </row>
+    <row r="7" spans="1:2" ht="46.3" x14ac:dyDescent="0.6">
+      <c r="A7" s="156" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="157"/>
+    </row>
+    <row r="8" spans="1:2" ht="46.3" x14ac:dyDescent="0.6">
+      <c r="A8" s="158" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="157"/>
+    </row>
+    <row r="9" spans="1:2" ht="23.15" x14ac:dyDescent="0.6">
+      <c r="A9" s="158" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="157"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Microworld/Docs/key_tables.xlsx
+++ b/Microworld/Docs/key_tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_gna\Documents\TCD\Modules\CS7CS5_Dissertation\Microworld\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB53C6B0-33DE-4556-801A-0D5288355F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCB2614-32E0-4AF2-B8A3-D83795DF3F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1027,43 +1027,145 @@
     <xf numFmtId="11" fontId="19" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1080,104 +1182,68 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1186,73 +1252,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1552,9 +1552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817A891D-2421-4FEC-BA92-F0AF5A602E4D}">
   <dimension ref="A1:AC12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:T10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1649,17 +1647,17 @@
         <v>1800</v>
       </c>
       <c r="U1" s="17"/>
-      <c r="V1" s="85" t="s">
+      <c r="V1" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
+      <c r="W1" s="119"/>
+      <c r="X1" s="119"/>
       <c r="Y1" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
@@ -1670,36 +1668,36 @@
         <f>C1-$X$2</f>
         <v>-219.3</v>
       </c>
-      <c r="D2" s="71">
+      <c r="D2" s="79">
         <f>((D1-$X$2)+(F1-$X$2))/2</f>
         <v>-144.30000000000001</v>
       </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68">
+      <c r="E2" s="79"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80">
         <f t="shared" ref="G2" si="0">((G1-$X$2)+(I1-$X$2))/2</f>
         <v>-29.300000000000011</v>
       </c>
-      <c r="H2" s="69"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="68">
+      <c r="H2" s="85"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="80">
         <f t="shared" ref="J2" si="1">((J1-$X$2)+(L1-$X$2))/2</f>
         <v>145.69999999999999</v>
       </c>
-      <c r="K2" s="69"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="71">
+      <c r="K2" s="85"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="79">
         <f t="shared" ref="M2" si="2">((M1-$X$2)+(O1-$X$2))/2</f>
         <v>530.70000000000005</v>
       </c>
-      <c r="N2" s="71"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="71">
+      <c r="N2" s="79"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="79">
         <f t="shared" ref="P2" si="3">((P1-$X$2)+(R1-$X$2))/2</f>
         <v>1080.7</v>
       </c>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="68"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="80"/>
       <c r="S2" s="13" t="s">
         <v>7</v>
       </c>
@@ -1708,10 +1706,10 @@
         <v>1380.7</v>
       </c>
       <c r="U2" s="17"/>
-      <c r="V2" s="86" t="s">
+      <c r="V2" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="86"/>
+      <c r="W2" s="81"/>
       <c r="X2" s="21">
         <v>419.3</v>
       </c>
@@ -1720,7 +1718,7 @@
       </c>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:29" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1731,36 +1729,36 @@
         <f>0.01*C2</f>
         <v>-2.1930000000000001</v>
       </c>
-      <c r="D3" s="68">
+      <c r="D3" s="80">
         <f t="shared" ref="D3" si="4">0.01*D2</f>
         <v>-1.4430000000000001</v>
       </c>
-      <c r="E3" s="69"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="68">
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="80">
         <f t="shared" ref="G3" si="5">0.01*G2</f>
         <v>-0.29300000000000009</v>
       </c>
-      <c r="H3" s="69"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="68">
+      <c r="H3" s="85"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="80">
         <f t="shared" ref="J3" si="6">0.01*J2</f>
         <v>1.4569999999999999</v>
       </c>
-      <c r="K3" s="69"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="68">
+      <c r="K3" s="85"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="80">
         <f t="shared" ref="M3" si="7">0.01*M2</f>
         <v>5.3070000000000004</v>
       </c>
-      <c r="N3" s="69"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="68">
+      <c r="N3" s="85"/>
+      <c r="O3" s="86"/>
+      <c r="P3" s="80">
         <f t="shared" ref="P3" si="8">0.01*P2</f>
         <v>10.807</v>
       </c>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="70"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="86"/>
       <c r="S3" s="8" t="s">
         <v>7</v>
       </c>
@@ -1769,10 +1767,10 @@
         <v>13.807</v>
       </c>
       <c r="U3" s="17"/>
-      <c r="V3" s="86" t="s">
+      <c r="V3" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="86"/>
+      <c r="W3" s="81"/>
       <c r="X3" s="21">
         <v>14.98</v>
       </c>
@@ -1781,7 +1779,7 @@
       </c>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -1792,36 +1790,36 @@
         <f>$X$3 + C3</f>
         <v>12.787000000000001</v>
       </c>
-      <c r="D4" s="71">
+      <c r="D4" s="79">
         <f>$X$3 + D3</f>
         <v>13.537000000000001</v>
       </c>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="68">
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="80">
         <f t="shared" ref="G4" si="9">$X$3 + G3</f>
         <v>14.687000000000001</v>
       </c>
-      <c r="H4" s="69"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="68">
+      <c r="H4" s="85"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="80">
         <f t="shared" ref="J4" si="10">$X$3 + J3</f>
         <v>16.437000000000001</v>
       </c>
-      <c r="K4" s="69"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71">
+      <c r="K4" s="85"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="79">
         <f t="shared" ref="M4" si="11">$X$3 + M3</f>
         <v>20.286999999999999</v>
       </c>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71">
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79">
         <f t="shared" ref="P4" si="12">$X$3 + P3</f>
         <v>25.786999999999999</v>
       </c>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
       <c r="S4" s="8" t="s">
         <v>7</v>
       </c>
@@ -1830,10 +1828,10 @@
         <v>28.786999999999999</v>
       </c>
       <c r="U4" s="17"/>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="W4" s="86"/>
+      <c r="W4" s="81"/>
       <c r="X4" s="21">
         <v>11.2</v>
       </c>
@@ -1842,7 +1840,7 @@
       </c>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:29" ht="14.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1853,36 +1851,36 @@
         <f>$X$4+C3</f>
         <v>9.0069999999999997</v>
       </c>
-      <c r="D5" s="68">
+      <c r="D5" s="80">
         <f>$X$4+D3</f>
         <v>9.7569999999999997</v>
       </c>
-      <c r="E5" s="69"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="68">
+      <c r="E5" s="85"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="80">
         <f t="shared" ref="G5" si="13">$X$4+G3</f>
         <v>10.907</v>
       </c>
-      <c r="H5" s="69"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="68">
+      <c r="H5" s="85"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="80">
         <f t="shared" ref="J5" si="14">$X$4+J3</f>
         <v>12.657</v>
       </c>
-      <c r="K5" s="69"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="68">
+      <c r="K5" s="85"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="80">
         <f t="shared" ref="M5" si="15">$X$4+M3</f>
         <v>16.506999999999998</v>
       </c>
-      <c r="N5" s="69"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="68">
+      <c r="N5" s="85"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="80">
         <f t="shared" ref="P5" si="16">$X$4+P3</f>
         <v>22.006999999999998</v>
       </c>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="70"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="86"/>
       <c r="S5" s="8" t="s">
         <v>7</v>
       </c>
@@ -1891,10 +1889,10 @@
         <v>25.006999999999998</v>
       </c>
       <c r="U5" s="17"/>
-      <c r="V5" s="86" t="s">
+      <c r="V5" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="86"/>
+      <c r="W5" s="81"/>
       <c r="X5" s="21">
         <v>29.1</v>
       </c>
@@ -1903,7 +1901,7 @@
       </c>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:29" ht="14.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
@@ -1914,36 +1912,36 @@
         <f>X5+C3</f>
         <v>26.907</v>
       </c>
-      <c r="D6" s="68">
+      <c r="D6" s="80">
         <f>$X$5+D3</f>
         <v>27.657</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="68">
+      <c r="E6" s="85"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="80">
         <f t="shared" ref="G6" si="17">$X$5+G3</f>
         <v>28.807000000000002</v>
       </c>
-      <c r="H6" s="69"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="68">
+      <c r="H6" s="85"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="80">
         <f t="shared" ref="J6" si="18">$X$5+J3</f>
         <v>30.557000000000002</v>
       </c>
-      <c r="K6" s="69"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="68">
+      <c r="K6" s="85"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="80">
         <f t="shared" ref="M6" si="19">$X$5+M3</f>
         <v>34.407000000000004</v>
       </c>
-      <c r="N6" s="69"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="68">
+      <c r="N6" s="85"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="80">
         <f t="shared" ref="P6" si="20">$X$5+P3</f>
         <v>39.907000000000004</v>
       </c>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="70"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="86"/>
       <c r="S6" s="8" t="s">
         <v>7</v>
       </c>
@@ -1962,30 +1960,30 @@
       <c r="A7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="103"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="84"/>
-      <c r="S7" s="89"/>
-      <c r="T7" s="89"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="113"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="118"/>
+      <c r="Q7" s="118"/>
+      <c r="R7" s="118"/>
+      <c r="S7" s="120"/>
+      <c r="T7" s="120"/>
       <c r="U7" s="17"/>
-      <c r="V7" s="105" t="s">
+      <c r="V7" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="W7" s="105"/>
+      <c r="W7" s="82"/>
       <c r="X7" s="22">
         <v>426.95</v>
       </c>
@@ -1994,29 +1992,29 @@
       </c>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:29" s="30" customFormat="1" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" s="30" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="87"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="90"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="92"/>
-      <c r="M8" s="93"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="95"/>
-      <c r="P8" s="96"/>
-      <c r="Q8" s="97"/>
-      <c r="R8" s="98"/>
-      <c r="S8" s="87"/>
-      <c r="T8" s="88"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="105"/>
+      <c r="P8" s="106"/>
+      <c r="Q8" s="107"/>
+      <c r="R8" s="108"/>
+      <c r="S8" s="98"/>
+      <c r="T8" s="99"/>
       <c r="U8" s="27"/>
       <c r="V8" s="28"/>
       <c r="W8" s="28"/>
@@ -2062,34 +2060,34 @@
       <c r="A10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="107"/>
-      <c r="D10" s="72" t="s">
+      <c r="C10" s="84"/>
+      <c r="D10" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="75" t="s">
+      <c r="E10" s="122"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="76"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="78" t="s">
+      <c r="H10" s="125"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="79"/>
-      <c r="L10" s="80"/>
-      <c r="M10" s="81" t="s">
+      <c r="K10" s="128"/>
+      <c r="L10" s="129"/>
+      <c r="M10" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="82"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="117" t="s">
+      <c r="N10" s="116"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="Q10" s="118"/>
+      <c r="Q10" s="97"/>
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
       <c r="T10" s="17"/>
@@ -2114,6 +2112,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="V5:W5"/>
     <mergeCell ref="V7:W7"/>
@@ -2130,41 +2163,6 @@
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="P10:Q10"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="J3:L3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Y2" r:id="rId1" xr:uid="{EA1F0497-8D07-4B75-9231-D4586E3C40F5}"/>
@@ -2189,97 +2187,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="122"/>
+      <c r="C2" s="131"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="122"/>
-      <c r="B3" s="123" t="s">
+      <c r="A3" s="131"/>
+      <c r="B3" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="123" t="s">
+      <c r="C3" s="68" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="124" t="s">
+      <c r="A4" s="69" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="124">
+      <c r="B4" s="69">
         <v>1</v>
       </c>
-      <c r="C4" s="124">
+      <c r="C4" s="69">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="124" t="s">
+      <c r="A5" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="124">
+      <c r="B5" s="69">
         <f>B4/100</f>
         <v>0.01</v>
       </c>
-      <c r="C5" s="124">
+      <c r="C5" s="69">
         <f>C4/1000</f>
         <v>1E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="124" t="s">
+      <c r="A6" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="124">
+      <c r="B6" s="69">
         <f>B5/100</f>
         <v>1E-4</v>
       </c>
-      <c r="C6" s="124">
+      <c r="C6" s="69">
         <f>C5/100</f>
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="124" t="s">
+      <c r="A7" s="69" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="124">
+      <c r="B7" s="69">
         <v>0</v>
       </c>
-      <c r="C7" s="124">
+      <c r="C7" s="69">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="124" t="s">
+      <c r="A8" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="124">
+      <c r="B8" s="69">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C8" s="124">
+      <c r="C8" s="69">
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="126">
+      <c r="B9" s="71">
         <v>0.1</v>
       </c>
-      <c r="C9" s="126">
+      <c r="C9" s="71">
         <v>0.01</v>
       </c>
     </row>
@@ -2313,78 +2311,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="141" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
     </row>
     <row r="2" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="142" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="143" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="130" t="s">
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="130"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
     </row>
     <row r="3" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="120"/>
-      <c r="B3" s="131" t="s">
+      <c r="A3" s="142"/>
+      <c r="B3" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="131"/>
-      <c r="D3" s="132" t="s">
+      <c r="C3" s="139"/>
+      <c r="D3" s="140" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="132"/>
-      <c r="F3" s="131" t="s">
+      <c r="E3" s="140"/>
+      <c r="F3" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="131"/>
-      <c r="H3" s="132" t="s">
+      <c r="G3" s="139"/>
+      <c r="H3" s="140" t="s">
         <v>98</v>
       </c>
-      <c r="I3" s="132"/>
+      <c r="I3" s="140"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="120"/>
-      <c r="B4" s="133" t="s">
+      <c r="A4" s="142"/>
+      <c r="B4" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="133" t="s">
+      <c r="C4" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="134" t="s">
+      <c r="D4" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="E4" s="134" t="s">
+      <c r="E4" s="73" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="133" t="s">
+      <c r="F4" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="133" t="s">
+      <c r="G4" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="134" t="s">
+      <c r="H4" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="I4" s="134" t="s">
+      <c r="I4" s="73" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2392,28 +2390,28 @@
       <c r="A5" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="135">
+      <c r="B5" s="74">
         <v>0</v>
       </c>
-      <c r="C5" s="135">
+      <c r="C5" s="74">
         <v>3</v>
       </c>
-      <c r="D5" s="136">
+      <c r="D5" s="75">
         <v>0</v>
       </c>
-      <c r="E5" s="136">
+      <c r="E5" s="75">
         <v>4</v>
       </c>
-      <c r="F5" s="135">
+      <c r="F5" s="74">
         <v>0</v>
       </c>
-      <c r="G5" s="135">
+      <c r="G5" s="74">
         <v>15</v>
       </c>
-      <c r="H5" s="136">
+      <c r="H5" s="75">
         <v>0</v>
       </c>
-      <c r="I5" s="136">
+      <c r="I5" s="75">
         <v>50</v>
       </c>
     </row>
@@ -2421,30 +2419,30 @@
       <c r="A6" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="135">
+      <c r="B6" s="74">
         <v>3</v>
       </c>
-      <c r="C6" s="135">
+      <c r="C6" s="74">
         <v>21</v>
       </c>
-      <c r="D6" s="136">
+      <c r="D6" s="75">
         <v>4</v>
       </c>
-      <c r="E6" s="136">
+      <c r="E6" s="75">
         <v>26</v>
       </c>
-      <c r="F6" s="135">
+      <c r="F6" s="74">
         <f>G5</f>
         <v>15</v>
       </c>
-      <c r="G6" s="135">
+      <c r="G6" s="74">
         <v>30</v>
       </c>
-      <c r="H6" s="136">
+      <c r="H6" s="75">
         <f>I5</f>
         <v>50</v>
       </c>
-      <c r="I6" s="136">
+      <c r="I6" s="75">
         <v>100</v>
       </c>
     </row>
@@ -2452,31 +2450,31 @@
       <c r="A7" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="135">
+      <c r="B7" s="74">
         <v>21</v>
       </c>
-      <c r="C7" s="135">
+      <c r="C7" s="74">
         <v>47</v>
       </c>
-      <c r="D7" s="136">
+      <c r="D7" s="75">
         <v>26</v>
       </c>
-      <c r="E7" s="136">
+      <c r="E7" s="75">
         <v>60</v>
       </c>
-      <c r="F7" s="135">
+      <c r="F7" s="74">
         <f>G6</f>
         <v>30</v>
       </c>
-      <c r="G7" s="135">
+      <c r="G7" s="74">
         <f>ROUND((((C7-$B$7)*($G$8-$F$7))/($C$8-$B$7))+$F$7,0)</f>
         <v>100</v>
       </c>
-      <c r="H7" s="136">
+      <c r="H7" s="75">
         <f t="shared" ref="H7:H9" si="0">I6</f>
         <v>100</v>
       </c>
-      <c r="I7" s="136">
+      <c r="I7" s="75">
         <f>ROUND((((E7-$D$7)*($G$8-$H$7))/($E$8-$D$7))+$H$7,0)</f>
         <v>133</v>
       </c>
@@ -2485,30 +2483,30 @@
       <c r="A8" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="135">
+      <c r="B8" s="74">
         <v>47</v>
       </c>
-      <c r="C8" s="135">
+      <c r="C8" s="74">
         <v>70</v>
       </c>
-      <c r="D8" s="136">
+      <c r="D8" s="75">
         <v>60</v>
       </c>
-      <c r="E8" s="136">
+      <c r="E8" s="75">
         <v>90</v>
       </c>
-      <c r="F8" s="135">
+      <c r="F8" s="74">
         <f>G7</f>
         <v>100</v>
       </c>
-      <c r="G8" s="135">
+      <c r="G8" s="74">
         <v>162</v>
       </c>
-      <c r="H8" s="136">
+      <c r="H8" s="75">
         <f t="shared" si="0"/>
         <v>133</v>
       </c>
-      <c r="I8" s="136">
+      <c r="I8" s="75">
         <v>525</v>
       </c>
     </row>
@@ -2516,294 +2514,302 @@
       <c r="A9" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="135">
+      <c r="B9" s="74">
         <v>70</v>
       </c>
-      <c r="C9" s="135">
+      <c r="C9" s="74">
         <v>80</v>
       </c>
-      <c r="D9" s="136">
+      <c r="D9" s="75">
         <v>90</v>
       </c>
-      <c r="E9" s="136">
+      <c r="E9" s="75">
         <v>100</v>
       </c>
-      <c r="F9" s="135">
+      <c r="F9" s="74">
         <f>G8</f>
         <v>162</v>
       </c>
-      <c r="G9" s="135">
+      <c r="G9" s="74">
         <v>212</v>
       </c>
-      <c r="H9" s="136">
+      <c r="H9" s="75">
         <f t="shared" si="0"/>
         <v>525</v>
       </c>
-      <c r="I9" s="136">
+      <c r="I9" s="75">
         <v>575</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="127" t="s">
+      <c r="A11" s="136" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="127"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127"/>
+      <c r="B11" s="136"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="128" t="s">
+      <c r="A12" s="138" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="130" t="s">
+      <c r="B12" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="130"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
+      <c r="C12" s="135"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="135"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="128"/>
-      <c r="B13" s="131" t="s">
+      <c r="A13" s="138"/>
+      <c r="B13" s="139" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="131"/>
-      <c r="D13" s="132" t="s">
+      <c r="C13" s="139"/>
+      <c r="D13" s="140" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="132"/>
+      <c r="E13" s="140"/>
       <c r="F13" s="137" t="s">
         <v>112</v>
       </c>
-      <c r="G13" s="138" t="s">
+      <c r="G13" s="132" t="s">
         <v>113</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="128"/>
-      <c r="B14" s="133" t="s">
+      <c r="A14" s="138"/>
+      <c r="B14" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="133" t="s">
+      <c r="C14" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="134" t="s">
+      <c r="D14" s="73" t="s">
         <v>109</v>
       </c>
-      <c r="E14" s="134" t="s">
+      <c r="E14" s="73" t="s">
         <v>110</v>
       </c>
       <c r="F14" s="137"/>
-      <c r="G14" s="138"/>
+      <c r="G14" s="132"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="125" t="s">
+      <c r="A15" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="135">
+      <c r="B15" s="74">
         <v>65</v>
       </c>
-      <c r="C15" s="139">
+      <c r="C15" s="76">
         <f t="shared" ref="C15:C20" si="1">(B15/$B$21)*100</f>
         <v>11.504424778761061</v>
       </c>
-      <c r="D15" s="136">
+      <c r="D15" s="75">
         <v>115</v>
       </c>
-      <c r="E15" s="140">
+      <c r="E15" s="77">
         <f t="shared" ref="E15:E20" si="2">(D15/$D$21)*100</f>
         <v>13.053348467650396</v>
       </c>
-      <c r="F15" s="141">
+      <c r="F15" s="78">
         <f>AVERAGE(C15,E15)</f>
         <v>12.278886623205729</v>
       </c>
-      <c r="G15" s="142">
+      <c r="G15" s="133">
         <v>15</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="125" t="s">
+      <c r="A16" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="135">
+      <c r="B16" s="74">
         <v>25</v>
       </c>
-      <c r="C16" s="139">
+      <c r="C16" s="76">
         <f t="shared" si="1"/>
         <v>4.4247787610619467</v>
       </c>
-      <c r="D16" s="136">
+      <c r="D16" s="75">
         <v>45</v>
       </c>
-      <c r="E16" s="140">
+      <c r="E16" s="77">
         <f t="shared" si="2"/>
         <v>5.1078320090805898</v>
       </c>
-      <c r="F16" s="141">
+      <c r="F16" s="78">
         <f t="shared" ref="F16:F20" si="3">AVERAGE(C16,E16)</f>
         <v>4.7663053850712682</v>
       </c>
-      <c r="G16" s="143"/>
+      <c r="G16" s="134"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" s="125" t="s">
+      <c r="A17" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="135">
+      <c r="B17" s="74">
         <v>220</v>
       </c>
-      <c r="C17" s="139">
+      <c r="C17" s="76">
         <f t="shared" si="1"/>
         <v>38.938053097345133</v>
       </c>
-      <c r="D17" s="136">
+      <c r="D17" s="75">
         <v>241</v>
       </c>
-      <c r="E17" s="140">
+      <c r="E17" s="77">
         <f t="shared" si="2"/>
         <v>27.355278093076052</v>
       </c>
-      <c r="F17" s="141">
+      <c r="F17" s="78">
         <f t="shared" si="3"/>
         <v>33.146665595210592</v>
       </c>
-      <c r="G17" s="141">
+      <c r="G17" s="78">
         <v>35</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="125" t="s">
+      <c r="A18" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="B18" s="135">
+      <c r="B18" s="74">
         <v>95</v>
       </c>
-      <c r="C18" s="139">
+      <c r="C18" s="76">
         <f t="shared" si="1"/>
         <v>16.814159292035399</v>
       </c>
-      <c r="D18" s="136">
+      <c r="D18" s="75">
         <v>160</v>
       </c>
-      <c r="E18" s="140">
+      <c r="E18" s="77">
         <f t="shared" si="2"/>
         <v>18.161180476730987</v>
       </c>
-      <c r="F18" s="141">
+      <c r="F18" s="78">
         <f t="shared" si="3"/>
         <v>17.487669884383195</v>
       </c>
-      <c r="G18" s="142">
+      <c r="G18" s="133">
         <v>20</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="125" t="s">
+      <c r="A19" s="70" t="s">
         <v>103</v>
       </c>
-      <c r="B19" s="135">
+      <c r="B19" s="74">
         <v>5</v>
       </c>
-      <c r="C19" s="139">
+      <c r="C19" s="76">
         <f t="shared" si="1"/>
         <v>0.88495575221238942</v>
       </c>
-      <c r="D19" s="136">
+      <c r="D19" s="75">
         <v>10</v>
       </c>
-      <c r="E19" s="140">
+      <c r="E19" s="77">
         <f t="shared" si="2"/>
         <v>1.1350737797956867</v>
       </c>
-      <c r="F19" s="141">
+      <c r="F19" s="78">
         <f t="shared" si="3"/>
         <v>1.0100147660040379</v>
       </c>
-      <c r="G19" s="143"/>
+      <c r="G19" s="134"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="125" t="s">
+      <c r="A20" s="70" t="s">
         <v>104</v>
       </c>
-      <c r="B20" s="135">
+      <c r="B20" s="74">
         <v>155</v>
       </c>
-      <c r="C20" s="139">
+      <c r="C20" s="76">
         <f t="shared" si="1"/>
         <v>27.43362831858407</v>
       </c>
-      <c r="D20" s="136">
+      <c r="D20" s="75">
         <v>310</v>
       </c>
-      <c r="E20" s="140">
+      <c r="E20" s="77">
         <f t="shared" si="2"/>
         <v>35.187287173666284</v>
       </c>
-      <c r="F20" s="141">
+      <c r="F20" s="78">
         <f t="shared" si="3"/>
         <v>31.310457746125177</v>
       </c>
-      <c r="G20" s="141">
+      <c r="G20" s="78">
         <v>30</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="125" t="s">
+      <c r="A21" s="70" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="135">
+      <c r="B21" s="74">
         <f t="shared" ref="B21:G21" si="4">SUM(B15:B20)</f>
         <v>565</v>
       </c>
-      <c r="C21" s="139">
+      <c r="C21" s="76">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="D21" s="136">
+      <c r="D21" s="75">
         <f t="shared" si="4"/>
         <v>881</v>
       </c>
-      <c r="E21" s="140">
+      <c r="E21" s="77">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="F21" s="141">
+      <c r="F21" s="78">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="G21" s="141">
+      <c r="G21" s="78">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B2:E2"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="B12:G12"/>
@@ -2813,14 +2819,6 @@
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Microworld/Docs/key_tables.xlsx
+++ b/Microworld/Docs/key_tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_gna\Documents\TCD\Modules\CS7CS5_Dissertation\Microworld\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCB2614-32E0-4AF2-B8A3-D83795DF3F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBA5BE2-8B1A-4054-BFAB-3D9BA7EFDBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1060,157 +1060,157 @@
     <xf numFmtId="1" fontId="19" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1219,6 +1219,24 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1228,9 +1246,6 @@
     <xf numFmtId="1" fontId="19" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1238,21 +1253,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1552,7 +1552,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817A891D-2421-4FEC-BA92-F0AF5A602E4D}">
   <dimension ref="A1:AC12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:T10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1647,17 +1649,17 @@
         <v>1800</v>
       </c>
       <c r="U1" s="17"/>
-      <c r="V1" s="119" t="s">
+      <c r="V1" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="119"/>
-      <c r="X1" s="119"/>
+      <c r="W1" s="96"/>
+      <c r="X1" s="96"/>
       <c r="Y1" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
@@ -1668,36 +1670,36 @@
         <f>C1-$X$2</f>
         <v>-219.3</v>
       </c>
-      <c r="D2" s="79">
+      <c r="D2" s="82">
         <f>((D1-$X$2)+(F1-$X$2))/2</f>
         <v>-144.30000000000001</v>
       </c>
-      <c r="E2" s="79"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80">
+      <c r="E2" s="82"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79">
         <f t="shared" ref="G2" si="0">((G1-$X$2)+(I1-$X$2))/2</f>
         <v>-29.300000000000011</v>
       </c>
-      <c r="H2" s="85"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="80">
+      <c r="H2" s="80"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="79">
         <f t="shared" ref="J2" si="1">((J1-$X$2)+(L1-$X$2))/2</f>
         <v>145.69999999999999</v>
       </c>
-      <c r="K2" s="85"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="79">
+      <c r="K2" s="80"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="82">
         <f t="shared" ref="M2" si="2">((M1-$X$2)+(O1-$X$2))/2</f>
         <v>530.70000000000005</v>
       </c>
-      <c r="N2" s="79"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="79">
+      <c r="N2" s="82"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="82">
         <f t="shared" ref="P2" si="3">((P1-$X$2)+(R1-$X$2))/2</f>
         <v>1080.7</v>
       </c>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="80"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="79"/>
       <c r="S2" s="13" t="s">
         <v>7</v>
       </c>
@@ -1706,10 +1708,10 @@
         <v>1380.7</v>
       </c>
       <c r="U2" s="17"/>
-      <c r="V2" s="81" t="s">
+      <c r="V2" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="W2" s="81"/>
+      <c r="W2" s="97"/>
       <c r="X2" s="21">
         <v>419.3</v>
       </c>
@@ -1718,7 +1720,7 @@
       </c>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1729,36 +1731,36 @@
         <f>0.01*C2</f>
         <v>-2.1930000000000001</v>
       </c>
-      <c r="D3" s="80">
+      <c r="D3" s="79">
         <f t="shared" ref="D3" si="4">0.01*D2</f>
         <v>-1.4430000000000001</v>
       </c>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="80">
+      <c r="E3" s="80"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="79">
         <f t="shared" ref="G3" si="5">0.01*G2</f>
         <v>-0.29300000000000009</v>
       </c>
-      <c r="H3" s="85"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="80">
+      <c r="H3" s="80"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="79">
         <f t="shared" ref="J3" si="6">0.01*J2</f>
         <v>1.4569999999999999</v>
       </c>
-      <c r="K3" s="85"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="80">
+      <c r="K3" s="80"/>
+      <c r="L3" s="81"/>
+      <c r="M3" s="79">
         <f t="shared" ref="M3" si="7">0.01*M2</f>
         <v>5.3070000000000004</v>
       </c>
-      <c r="N3" s="85"/>
-      <c r="O3" s="86"/>
-      <c r="P3" s="80">
+      <c r="N3" s="80"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="79">
         <f t="shared" ref="P3" si="8">0.01*P2</f>
         <v>10.807</v>
       </c>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="86"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="81"/>
       <c r="S3" s="8" t="s">
         <v>7</v>
       </c>
@@ -1767,10 +1769,10 @@
         <v>13.807</v>
       </c>
       <c r="U3" s="17"/>
-      <c r="V3" s="81" t="s">
+      <c r="V3" s="97" t="s">
         <v>17</v>
       </c>
-      <c r="W3" s="81"/>
+      <c r="W3" s="97"/>
       <c r="X3" s="21">
         <v>14.98</v>
       </c>
@@ -1779,7 +1781,7 @@
       </c>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -1790,36 +1792,36 @@
         <f>$X$3 + C3</f>
         <v>12.787000000000001</v>
       </c>
-      <c r="D4" s="79">
+      <c r="D4" s="82">
         <f>$X$3 + D3</f>
         <v>13.537000000000001</v>
       </c>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="80">
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="79">
         <f t="shared" ref="G4" si="9">$X$3 + G3</f>
         <v>14.687000000000001</v>
       </c>
-      <c r="H4" s="85"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="80">
+      <c r="H4" s="80"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="79">
         <f t="shared" ref="J4" si="10">$X$3 + J3</f>
         <v>16.437000000000001</v>
       </c>
-      <c r="K4" s="85"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="79">
+      <c r="K4" s="80"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="82">
         <f t="shared" ref="M4" si="11">$X$3 + M3</f>
         <v>20.286999999999999</v>
       </c>
-      <c r="N4" s="79"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="79">
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="82">
         <f t="shared" ref="P4" si="12">$X$3 + P3</f>
         <v>25.786999999999999</v>
       </c>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
       <c r="S4" s="8" t="s">
         <v>7</v>
       </c>
@@ -1828,10 +1830,10 @@
         <v>28.786999999999999</v>
       </c>
       <c r="U4" s="17"/>
-      <c r="V4" s="81" t="s">
+      <c r="V4" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="W4" s="81"/>
+      <c r="W4" s="97"/>
       <c r="X4" s="21">
         <v>11.2</v>
       </c>
@@ -1840,7 +1842,7 @@
       </c>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:29" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="14.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1851,36 +1853,36 @@
         <f>$X$4+C3</f>
         <v>9.0069999999999997</v>
       </c>
-      <c r="D5" s="80">
+      <c r="D5" s="79">
         <f>$X$4+D3</f>
         <v>9.7569999999999997</v>
       </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="80">
+      <c r="E5" s="80"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="79">
         <f t="shared" ref="G5" si="13">$X$4+G3</f>
         <v>10.907</v>
       </c>
-      <c r="H5" s="85"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="80">
+      <c r="H5" s="80"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="79">
         <f t="shared" ref="J5" si="14">$X$4+J3</f>
         <v>12.657</v>
       </c>
-      <c r="K5" s="85"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="80">
+      <c r="K5" s="80"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="79">
         <f t="shared" ref="M5" si="15">$X$4+M3</f>
         <v>16.506999999999998</v>
       </c>
-      <c r="N5" s="85"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="80">
+      <c r="N5" s="80"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="79">
         <f t="shared" ref="P5" si="16">$X$4+P3</f>
         <v>22.006999999999998</v>
       </c>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="86"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="81"/>
       <c r="S5" s="8" t="s">
         <v>7</v>
       </c>
@@ -1889,10 +1891,10 @@
         <v>25.006999999999998</v>
       </c>
       <c r="U5" s="17"/>
-      <c r="V5" s="81" t="s">
+      <c r="V5" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="W5" s="81"/>
+      <c r="W5" s="97"/>
       <c r="X5" s="21">
         <v>29.1</v>
       </c>
@@ -1901,7 +1903,7 @@
       </c>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:29" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="14.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
@@ -1912,36 +1914,36 @@
         <f>X5+C3</f>
         <v>26.907</v>
       </c>
-      <c r="D6" s="80">
+      <c r="D6" s="79">
         <f>$X$5+D3</f>
         <v>27.657</v>
       </c>
-      <c r="E6" s="85"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="80">
+      <c r="E6" s="80"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="79">
         <f t="shared" ref="G6" si="17">$X$5+G3</f>
         <v>28.807000000000002</v>
       </c>
-      <c r="H6" s="85"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="80">
+      <c r="H6" s="80"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="79">
         <f t="shared" ref="J6" si="18">$X$5+J3</f>
         <v>30.557000000000002</v>
       </c>
-      <c r="K6" s="85"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="80">
+      <c r="K6" s="80"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="79">
         <f t="shared" ref="M6" si="19">$X$5+M3</f>
         <v>34.407000000000004</v>
       </c>
-      <c r="N6" s="85"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="80">
+      <c r="N6" s="80"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="79">
         <f t="shared" ref="P6" si="20">$X$5+P3</f>
         <v>39.907000000000004</v>
       </c>
-      <c r="Q6" s="85"/>
-      <c r="R6" s="86"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="81"/>
       <c r="S6" s="8" t="s">
         <v>7</v>
       </c>
@@ -1960,30 +1962,30 @@
       <c r="A7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="113"/>
-      <c r="M7" s="114"/>
-      <c r="N7" s="114"/>
-      <c r="O7" s="114"/>
-      <c r="P7" s="118"/>
-      <c r="Q7" s="118"/>
-      <c r="R7" s="118"/>
-      <c r="S7" s="120"/>
-      <c r="T7" s="120"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="120"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="113"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="95"/>
+      <c r="Q7" s="95"/>
+      <c r="R7" s="95"/>
+      <c r="S7" s="100"/>
+      <c r="T7" s="100"/>
       <c r="U7" s="17"/>
-      <c r="V7" s="82" t="s">
+      <c r="V7" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="W7" s="82"/>
+      <c r="W7" s="116"/>
       <c r="X7" s="22">
         <v>426.95</v>
       </c>
@@ -1998,21 +2000,21 @@
       </c>
       <c r="B8" s="98"/>
       <c r="C8" s="99"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="92"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="101"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="103"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="105"/>
-      <c r="P8" s="106"/>
-      <c r="Q8" s="107"/>
-      <c r="R8" s="108"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="102"/>
+      <c r="L8" s="103"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="108"/>
+      <c r="R8" s="109"/>
       <c r="S8" s="98"/>
       <c r="T8" s="99"/>
       <c r="U8" s="27"/>
@@ -2060,34 +2062,34 @@
       <c r="A10" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="121" t="s">
+      <c r="C10" s="118"/>
+      <c r="D10" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="122"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="124" t="s">
+      <c r="E10" s="84"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="127" t="s">
+      <c r="H10" s="87"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="128"/>
-      <c r="L10" s="129"/>
-      <c r="M10" s="115" t="s">
+      <c r="K10" s="90"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="116"/>
-      <c r="O10" s="117"/>
-      <c r="P10" s="96" t="s">
+      <c r="N10" s="93"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="Q10" s="97"/>
+      <c r="Q10" s="129"/>
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
       <c r="T10" s="17"/>
@@ -2112,41 +2114,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="V1:X1"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:O7"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="V5:W5"/>
     <mergeCell ref="V7:W7"/>
@@ -2163,6 +2130,41 @@
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="P10:Q10"/>
     <mergeCell ref="D3:F3"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="V1:X1"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="J3:L3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="Y2" r:id="rId1" xr:uid="{EA1F0497-8D07-4B75-9231-D4586E3C40F5}"/>
@@ -2311,56 +2313,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="132" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="141"/>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
     </row>
     <row r="2" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="133" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="137" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="135" t="s">
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
     </row>
     <row r="3" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="142"/>
-      <c r="B3" s="139" t="s">
+      <c r="A3" s="133"/>
+      <c r="B3" s="134" t="s">
         <v>101</v>
       </c>
-      <c r="C3" s="139"/>
-      <c r="D3" s="140" t="s">
+      <c r="C3" s="134"/>
+      <c r="D3" s="135" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="140"/>
-      <c r="F3" s="139" t="s">
+      <c r="E3" s="135"/>
+      <c r="F3" s="134" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="139"/>
-      <c r="H3" s="140" t="s">
+      <c r="G3" s="134"/>
+      <c r="H3" s="135" t="s">
         <v>98</v>
       </c>
-      <c r="I3" s="140"/>
+      <c r="I3" s="135"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="142"/>
+      <c r="A4" s="133"/>
       <c r="B4" s="72" t="s">
         <v>105</v>
       </c>
@@ -2542,54 +2544,54 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="136" t="s">
+      <c r="A11" s="141" t="s">
         <v>108</v>
       </c>
-      <c r="B11" s="136"/>
-      <c r="C11" s="136"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="136"/>
-      <c r="G11" s="136"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="138" t="s">
+      <c r="A12" s="143" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="135" t="s">
+      <c r="B12" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="C12" s="135"/>
-      <c r="D12" s="135"/>
-      <c r="E12" s="135"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="135"/>
+      <c r="C12" s="136"/>
+      <c r="D12" s="136"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="136"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="138"/>
-      <c r="B13" s="139" t="s">
+      <c r="A13" s="143"/>
+      <c r="B13" s="134" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="139"/>
-      <c r="D13" s="140" t="s">
+      <c r="C13" s="134"/>
+      <c r="D13" s="135" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="140"/>
-      <c r="F13" s="137" t="s">
+      <c r="E13" s="135"/>
+      <c r="F13" s="142" t="s">
         <v>112</v>
       </c>
-      <c r="G13" s="132" t="s">
+      <c r="G13" s="138" t="s">
         <v>113</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="138"/>
+      <c r="A14" s="143"/>
       <c r="B14" s="72" t="s">
         <v>109</v>
       </c>
@@ -2602,8 +2604,8 @@
       <c r="E14" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="137"/>
-      <c r="G14" s="132"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="138"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
@@ -2629,7 +2631,7 @@
         <f>AVERAGE(C15,E15)</f>
         <v>12.278886623205729</v>
       </c>
-      <c r="G15" s="133">
+      <c r="G15" s="139">
         <v>15</v>
       </c>
       <c r="H15" s="1"/>
@@ -2657,7 +2659,7 @@
         <f t="shared" ref="F16:F20" si="3">AVERAGE(C16,E16)</f>
         <v>4.7663053850712682</v>
       </c>
-      <c r="G16" s="134"/>
+      <c r="G16" s="140"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
@@ -2711,7 +2713,7 @@
         <f t="shared" si="3"/>
         <v>17.487669884383195</v>
       </c>
-      <c r="G18" s="133">
+      <c r="G18" s="139">
         <v>20</v>
       </c>
       <c r="H18" s="1"/>
@@ -2739,7 +2741,7 @@
         <f t="shared" si="3"/>
         <v>1.0100147660040379</v>
       </c>
-      <c r="G19" s="134"/>
+      <c r="G19" s="140"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
@@ -2802,14 +2804,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="B2:E2"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="B12:G12"/>
@@ -2819,6 +2813,14 @@
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="B2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Microworld/Docs/key_tables.xlsx
+++ b/Microworld/Docs/key_tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g_gna\Documents\TCD\Modules\CS7CS5_Dissertation\Microworld\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBA5BE2-8B1A-4054-BFAB-3D9BA7EFDBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DF62902-DC2D-4EC6-88EC-94AF9982EBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9463" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="env_scale" sheetId="5" r:id="rId1"/>
@@ -310,9 +310,6 @@
     <t>Earth GtC :</t>
   </si>
   <si>
-    <t>&lt; 200</t>
-  </si>
-  <si>
     <t>&lt; 430</t>
   </si>
   <si>
@@ -401,6 +398,9 @@
   </si>
   <si>
     <t>Removed per Year:</t>
+  </si>
+  <si>
+    <t>&lt; 150</t>
   </si>
 </sst>
 </file>
@@ -1552,8 +1552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817A891D-2421-4FEC-BA92-F0AF5A602E4D}">
   <dimension ref="A1:AC12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:T10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1595,10 +1595,10 @@
         <v>10</v>
       </c>
       <c r="C1" s="9">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="D1" s="8">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>8</v>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
@@ -1668,11 +1668,11 @@
       </c>
       <c r="C2" s="18">
         <f>C1-$X$2</f>
-        <v>-219.3</v>
+        <v>-269.3</v>
       </c>
       <c r="D2" s="82">
         <f>((D1-$X$2)+(F1-$X$2))/2</f>
-        <v>-144.30000000000001</v>
+        <v>-169.3</v>
       </c>
       <c r="E2" s="82"/>
       <c r="F2" s="79"/>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:29" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -1729,11 +1729,11 @@
       </c>
       <c r="C3" s="18">
         <f>0.01*C2</f>
-        <v>-2.1930000000000001</v>
+        <v>-2.6930000000000001</v>
       </c>
       <c r="D3" s="79">
         <f t="shared" ref="D3" si="4">0.01*D2</f>
-        <v>-1.4430000000000001</v>
+        <v>-1.6930000000000001</v>
       </c>
       <c r="E3" s="80"/>
       <c r="F3" s="81"/>
@@ -1781,7 +1781,7 @@
       </c>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:29" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -1790,11 +1790,11 @@
       </c>
       <c r="C4" s="19">
         <f>$X$3 + C3</f>
-        <v>12.787000000000001</v>
+        <v>12.287000000000001</v>
       </c>
       <c r="D4" s="82">
         <f>$X$3 + D3</f>
-        <v>13.537000000000001</v>
+        <v>13.287000000000001</v>
       </c>
       <c r="E4" s="82"/>
       <c r="F4" s="82"/>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:29" ht="14.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
@@ -1851,11 +1851,11 @@
       </c>
       <c r="C5" s="18">
         <f>$X$4+C3</f>
-        <v>9.0069999999999997</v>
+        <v>8.5069999999999997</v>
       </c>
       <c r="D5" s="79">
         <f>$X$4+D3</f>
-        <v>9.7569999999999997</v>
+        <v>9.5069999999999997</v>
       </c>
       <c r="E5" s="80"/>
       <c r="F5" s="81"/>
@@ -1903,7 +1903,7 @@
       </c>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:29" ht="14.15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
@@ -1912,11 +1912,11 @@
       </c>
       <c r="C6" s="18">
         <f>X5+C3</f>
-        <v>26.907</v>
+        <v>26.407</v>
       </c>
       <c r="D6" s="79">
         <f>$X$5+D3</f>
-        <v>27.657</v>
+        <v>27.407</v>
       </c>
       <c r="E6" s="80"/>
       <c r="F6" s="81"/>
@@ -2178,8 +2178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C87F534-F25B-47CF-9084-F2B446B0BCF0}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="69" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="B4" s="69">
         <v>1</v>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="69" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="69">
         <f>B4/100</f>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="69">
         <f>B5/100</f>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="69" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="69">
         <v>0</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8" s="69">
         <v>5.0000000000000001E-4</v>
@@ -2274,7 +2274,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="70" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9" s="71">
         <v>0.1</v>
@@ -2314,7 +2314,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="132" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" s="132"/>
       <c r="C1" s="132"/>
@@ -2327,16 +2327,16 @@
     </row>
     <row r="2" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="133" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="137" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" s="137"/>
       <c r="D2" s="137"/>
       <c r="E2" s="137"/>
       <c r="F2" s="136" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G2" s="136"/>
       <c r="H2" s="136"/>
@@ -2345,52 +2345,52 @@
     <row r="3" spans="1:9" ht="14.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="133"/>
       <c r="B3" s="134" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="134"/>
       <c r="D3" s="135" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3" s="135"/>
       <c r="F3" s="134" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G3" s="134"/>
       <c r="H3" s="135" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I3" s="135"/>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="133"/>
       <c r="B4" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="72" t="s">
-        <v>106</v>
-      </c>
       <c r="D4" s="73" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="E4" s="73" t="s">
-        <v>106</v>
-      </c>
       <c r="F4" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="72" t="s">
-        <v>106</v>
-      </c>
       <c r="H4" s="73" t="s">
+        <v>104</v>
+      </c>
+      <c r="I4" s="73" t="s">
         <v>105</v>
-      </c>
-      <c r="I4" s="73" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="74">
         <v>0</v>
@@ -2419,7 +2419,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="74">
         <v>3</v>
@@ -2483,7 +2483,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B8" s="74">
         <v>47</v>
@@ -2514,7 +2514,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" s="74">
         <v>70</v>
@@ -2545,7 +2545,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="141" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B11" s="141"/>
       <c r="C11" s="141"/>
@@ -2558,10 +2558,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="143" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" s="136" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" s="136"/>
       <c r="D12" s="136"/>
@@ -2574,18 +2574,18 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="143"/>
       <c r="B13" s="134" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C13" s="134"/>
       <c r="D13" s="135" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E13" s="135"/>
       <c r="F13" s="142" t="s">
+        <v>111</v>
+      </c>
+      <c r="G13" s="138" t="s">
         <v>112</v>
-      </c>
-      <c r="G13" s="138" t="s">
-        <v>113</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -2593,16 +2593,16 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="143"/>
       <c r="B14" s="72" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="72" t="s">
-        <v>110</v>
-      </c>
       <c r="D14" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="73" t="s">
         <v>109</v>
-      </c>
-      <c r="E14" s="73" t="s">
-        <v>110</v>
       </c>
       <c r="F14" s="142"/>
       <c r="G14" s="138"/>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="70" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15" s="74">
         <v>65</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="74">
         <v>25</v>
@@ -2693,7 +2693,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B18" s="74">
         <v>95</v>
@@ -2721,7 +2721,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="70" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B19" s="74">
         <v>5</v>
@@ -2747,7 +2747,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B20" s="74">
         <v>155</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="70" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B21" s="74">
         <f t="shared" ref="B21:G21" si="4">SUM(B15:B20)</f>
@@ -2974,16 +2974,16 @@
         <v>60</v>
       </c>
       <c r="B1" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="D1" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="E1" s="54" t="s">
         <v>116</v>
-      </c>
-      <c r="E1" s="54" t="s">
-        <v>117</v>
       </c>
       <c r="F1" s="55" t="s">
         <v>67</v>
@@ -3034,7 +3034,7 @@
     </row>
     <row r="4" spans="1:6" ht="70.75" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B4" s="61">
         <v>0</v>
@@ -3054,7 +3054,7 @@
     </row>
     <row r="5" spans="1:6" ht="84.9" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B5" s="56" t="s">
         <v>61</v>
